--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,14 +138,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,28 +596,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,118 +629,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,22 +1090,23 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="11.8888888888889" customWidth="1"/>
-    <col min="9" max="12" width="12.8888888888889"/>
+    <col min="8" max="8" width="11.8916666666667" customWidth="1"/>
+    <col min="9" max="12" width="12.8916666666667"/>
     <col min="13" max="13" width="9.66666666666667"/>
-    <col min="14" max="14" width="12.8888888888889"/>
-    <col min="16" max="16" width="12.8888888888889"/>
-    <col min="17" max="17" width="10.6666666666667"/>
-    <col min="18" max="20" width="12.8888888888889"/>
-    <col min="22" max="22" width="11.7777777777778"/>
+    <col min="14" max="14" width="12.8916666666667"/>
+    <col min="16" max="16" width="12.8916666666667"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="20" width="12.8916666666667"/>
+    <col min="21" max="21" width="12.625"/>
+    <col min="22" max="22" width="11.775"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41.4" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="42.75" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,19 +1135,19 @@
         <v>4</v>
       </c>
       <c r="J1" s="1">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="1">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
@@ -1178,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="V1" s="1">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>11</v>
@@ -1193,19 +1187,19 @@
       </c>
       <c r="J2" s="1">
         <f>H1/N1</f>
-        <v>1.25</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="L2" s="1">
         <f>H1/N1</f>
-        <v>1.25</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:V2" si="0">POWER(J2,1/3)</f>
-        <v>1.07721734501594</v>
+        <v>1.10891823393039</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" si="0"/>
-        <v>1.07721734501594</v>
+        <v>1.10891823393039</v>
       </c>
       <c r="V2" s="1">
         <f>POWER(H1,1/3)</f>
@@ -1332,27 +1326,27 @@
       </c>
       <c r="O4">
         <f>ROUND(10*POWER($J$1,F4),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P4">
         <f>ROUND(I4*POWER($V$1,H4),0)</f>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <f>ROUND(O4*POWER($R$1,H4),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R4">
         <f>Q4/5</f>
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <f>P4/R4/60</f>
-        <v>1</v>
+        <f>P4/(R4-J4)/60</f>
+        <v>0.974358974358974</v>
       </c>
       <c r="T4">
         <f>POWER($N$1,F4)</f>
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1413,27 +1407,27 @@
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O36" si="12">ROUND(10*POWER($J$1,F5),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P36" si="13">ROUND(I5*POWER($V$1,H5),0)</f>
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q36" si="14">ROUND(O5*POWER($R$1,H5),0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:R36" si="15">Q5/5</f>
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S36" si="16">P5/R5/60</f>
-        <v>1.03888888888889</v>
+        <f t="shared" ref="S5:S36" si="16">P5/(R5-J5)/60</f>
+        <v>1.02400789183045</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T36" si="17">POWER($N$1,F5)</f>
-        <v>1.24456474720398</v>
+        <v>1.1211693641406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1494,27 +1488,27 @@
       </c>
       <c r="O6">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P6">
         <f t="shared" si="13"/>
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R6">
         <f t="shared" si="15"/>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S6">
         <f t="shared" si="16"/>
-        <v>1.07291666666667</v>
+        <v>1.06853838129096</v>
       </c>
       <c r="T6">
         <f t="shared" si="17"/>
-        <v>1.29078450831908</v>
+        <v>1.14274613007949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1575,27 +1569,27 @@
       </c>
       <c r="O7">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P7">
         <f t="shared" si="13"/>
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R7">
         <f t="shared" si="15"/>
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="S7">
         <f t="shared" si="16"/>
-        <v>1.19270833333333</v>
+        <v>1.07116920842411</v>
       </c>
       <c r="T7">
         <f t="shared" si="17"/>
-        <v>1.33872074607579</v>
+        <v>1.16473813821396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1656,27 +1650,27 @@
       </c>
       <c r="O8">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P8">
         <f t="shared" si="13"/>
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <f t="shared" si="15"/>
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S8">
         <f t="shared" si="16"/>
-        <v>1.17592592592593</v>
+        <v>1.13381628714114</v>
       </c>
       <c r="T8">
         <f t="shared" si="17"/>
-        <v>1.38843720576378</v>
+        <v>1.18715337982878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1737,27 +1731,27 @@
       </c>
       <c r="O9">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P9">
         <f t="shared" si="13"/>
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q9">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R9">
         <f t="shared" si="15"/>
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="S9">
         <f t="shared" si="16"/>
-        <v>1.23684210526316</v>
+        <v>1.15083869340396</v>
       </c>
       <c r="T9">
         <f t="shared" si="17"/>
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1818,27 +1812,27 @@
       </c>
       <c r="O10">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P10">
         <f t="shared" si="13"/>
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q10">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R10">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10">
         <f t="shared" si="16"/>
-        <v>1.30416666666667</v>
+        <v>1.13090777898038</v>
       </c>
       <c r="T10">
         <f t="shared" si="17"/>
-        <v>1.49347769664477</v>
+        <v>1.23328630055466</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1899,27 +1893,27 @@
       </c>
       <c r="O11">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <f t="shared" si="13"/>
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Q11">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R11">
         <f t="shared" si="15"/>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="S11">
         <f t="shared" si="16"/>
-        <v>1.38095238095238</v>
+        <v>1.21537194399245</v>
       </c>
       <c r="T11">
         <f t="shared" si="17"/>
-        <v>1.5489414099829</v>
+        <v>1.25702074308744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1980,27 +1974,27 @@
       </c>
       <c r="O12">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <f t="shared" si="13"/>
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="Q12">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R12">
         <f t="shared" si="15"/>
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="S12">
         <f t="shared" si="16"/>
-        <v>1.39492753623188</v>
+        <v>1.25563947256911</v>
       </c>
       <c r="T12">
         <f t="shared" si="17"/>
-        <v>1.60646489529095</v>
+        <v>1.28121195203536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2061,27 +2055,27 @@
       </c>
       <c r="O13">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P13">
         <f t="shared" si="13"/>
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="Q13">
         <f t="shared" si="14"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R13">
         <f t="shared" si="15"/>
-        <v>6.6</v>
+        <v>9.2</v>
       </c>
       <c r="S13">
         <f t="shared" si="16"/>
-        <v>1.81313131313131</v>
+        <v>1.47652555081324</v>
       </c>
       <c r="T13">
         <f t="shared" si="17"/>
-        <v>1.99934957629985</v>
+        <v>1.43645558959282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2142,27 +2136,27 @@
       </c>
       <c r="O14">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P14">
         <f t="shared" si="13"/>
-        <v>796</v>
+        <v>855</v>
       </c>
       <c r="Q14">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R14">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <f t="shared" si="16"/>
-        <v>1.8952380952381</v>
+        <v>1.51299583793426</v>
       </c>
       <c r="T14">
         <f t="shared" si="17"/>
-        <v>2.0736</v>
+        <v>1.4641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2223,27 +2217,27 @@
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P15">
         <f t="shared" si="13"/>
-        <v>884</v>
+        <v>952</v>
       </c>
       <c r="Q15">
         <f t="shared" si="14"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R15">
         <f t="shared" si="15"/>
-        <v>7.8</v>
+        <v>10.8</v>
       </c>
       <c r="S15">
         <f t="shared" si="16"/>
-        <v>1.88888888888889</v>
+        <v>1.56114199504764</v>
       </c>
       <c r="T15">
         <f t="shared" si="17"/>
-        <v>2.15060788316847</v>
+        <v>1.49227642367114</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2304,27 +2298,27 @@
       </c>
       <c r="O16">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>980</v>
+        <v>1059</v>
       </c>
       <c r="Q16">
         <f t="shared" si="14"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="R16">
         <f t="shared" si="15"/>
-        <v>8.2</v>
+        <v>11.8</v>
       </c>
       <c r="S16">
         <f t="shared" si="16"/>
-        <v>1.99186991869919</v>
+        <v>1.58951729106628</v>
       </c>
       <c r="T16">
         <f t="shared" si="17"/>
-        <v>2.23047563037538</v>
+        <v>1.52099509913581</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2385,27 +2379,27 @@
       </c>
       <c r="O17">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P17">
         <f t="shared" si="13"/>
-        <v>1088</v>
+        <v>1180</v>
       </c>
       <c r="Q17">
         <f t="shared" si="14"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R17">
         <f t="shared" si="15"/>
-        <v>8.6</v>
+        <v>12.8</v>
       </c>
       <c r="S17">
         <f t="shared" si="16"/>
-        <v>2.10852713178295</v>
+        <v>1.6335254802288</v>
       </c>
       <c r="T17">
         <f t="shared" si="17"/>
-        <v>2.31330944921897</v>
+        <v>1.55026646196279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2466,27 +2460,27 @@
       </c>
       <c r="O18">
         <f t="shared" si="12"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="P18">
         <f t="shared" si="13"/>
-        <v>1206</v>
+        <v>1313</v>
       </c>
       <c r="Q18">
         <f t="shared" si="14"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="R18">
         <f t="shared" si="15"/>
-        <v>9.2</v>
+        <v>14</v>
       </c>
       <c r="S18">
         <f t="shared" si="16"/>
-        <v>2.18478260869565</v>
+        <v>1.66168036002653</v>
       </c>
       <c r="T18">
         <f t="shared" si="17"/>
-        <v>2.39921949155982</v>
+        <v>1.58010114855211</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2547,27 +2541,27 @@
       </c>
       <c r="O19">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P19">
         <f t="shared" si="13"/>
-        <v>1338</v>
+        <v>1461</v>
       </c>
       <c r="Q19">
         <f t="shared" si="14"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="R19">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>15.2</v>
       </c>
       <c r="S19">
         <f t="shared" si="16"/>
-        <v>2.23</v>
+        <v>1.70357155350334</v>
       </c>
       <c r="T19">
         <f t="shared" si="17"/>
-        <v>2.48832</v>
+        <v>1.61051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2628,27 +2622,27 @@
       </c>
       <c r="O20">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P20">
         <f t="shared" si="13"/>
-        <v>1485</v>
+        <v>1629</v>
       </c>
       <c r="Q20">
         <f t="shared" si="14"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="R20">
         <f t="shared" si="15"/>
-        <v>10.6</v>
+        <v>16</v>
       </c>
       <c r="S20">
         <f t="shared" si="16"/>
-        <v>2.33490566037736</v>
+        <v>1.80866159042309</v>
       </c>
       <c r="T20">
         <f t="shared" si="17"/>
-        <v>2.58072945980217</v>
+        <v>1.64150406603826</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2709,27 +2703,27 @@
       </c>
       <c r="O21">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="P21">
         <f t="shared" si="13"/>
-        <v>1647</v>
+        <v>1812</v>
       </c>
       <c r="Q21">
         <f t="shared" si="14"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="R21">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>17.8</v>
       </c>
       <c r="S21">
         <f t="shared" si="16"/>
-        <v>2.49545454545455</v>
+        <v>1.80602566709326</v>
       </c>
       <c r="T21">
         <f t="shared" si="17"/>
-        <v>2.67657075645045</v>
+        <v>1.67309460904939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2790,27 +2784,27 @@
       </c>
       <c r="O22">
         <f t="shared" si="12"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="P22">
         <f t="shared" si="13"/>
-        <v>3070</v>
+        <v>3450</v>
       </c>
       <c r="Q22">
         <f t="shared" si="14"/>
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="R22">
         <f t="shared" si="15"/>
-        <v>16.6</v>
+        <v>28.6</v>
       </c>
       <c r="S22">
         <f t="shared" si="16"/>
-        <v>3.08232931726908</v>
+        <v>2.15759849906191</v>
       </c>
       <c r="T22">
         <f t="shared" si="17"/>
-        <v>3.33116560687532</v>
+        <v>1.87582241897497</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2871,27 +2865,27 @@
       </c>
       <c r="O23">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="P23">
         <f t="shared" si="13"/>
-        <v>3406</v>
+        <v>3842</v>
       </c>
       <c r="Q23">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="R23">
         <f t="shared" si="15"/>
-        <v>17.6</v>
+        <v>31</v>
       </c>
       <c r="S23">
         <f t="shared" si="16"/>
-        <v>3.22537878787879</v>
+        <v>2.21626909960174</v>
       </c>
       <c r="T23">
         <f t="shared" si="17"/>
-        <v>3.45487606784614</v>
+        <v>1.91192238974805</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2952,27 +2946,27 @@
       </c>
       <c r="O24">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="P24">
         <f t="shared" si="13"/>
-        <v>3778</v>
+        <v>4276</v>
       </c>
       <c r="Q24">
         <f t="shared" si="14"/>
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="R24">
         <f t="shared" si="15"/>
-        <v>18.8</v>
+        <v>33.6</v>
       </c>
       <c r="S24">
         <f t="shared" si="16"/>
-        <v>3.34929078014184</v>
+        <v>2.27532738427811</v>
       </c>
       <c r="T24">
         <f t="shared" si="17"/>
-        <v>3.5831808</v>
+        <v>1.9487171</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -3033,27 +3027,27 @@
       </c>
       <c r="O25">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="P25">
         <f t="shared" si="13"/>
-        <v>4190</v>
+        <v>4760</v>
       </c>
       <c r="Q25">
         <f t="shared" si="14"/>
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="R25">
         <f t="shared" si="15"/>
-        <v>19.8</v>
+        <v>36.6</v>
       </c>
       <c r="S25">
         <f t="shared" si="16"/>
-        <v>3.52693602693603</v>
+        <v>2.32402356833313</v>
       </c>
       <c r="T25">
         <f t="shared" si="17"/>
-        <v>3.71625042211512</v>
+        <v>1.98621991990629</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -3114,27 +3108,27 @@
       </c>
       <c r="O26">
         <f t="shared" si="12"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="P26">
         <f t="shared" si="13"/>
-        <v>4647</v>
+        <v>5298</v>
       </c>
       <c r="Q26">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="R26">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>39.2</v>
       </c>
       <c r="S26">
         <f t="shared" si="16"/>
-        <v>3.68809523809524</v>
+        <v>2.41684069926893</v>
       </c>
       <c r="T26">
         <f t="shared" si="17"/>
-        <v>3.85426188928865</v>
+        <v>2.02444447694976</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -3195,27 +3189,27 @@
       </c>
       <c r="O27">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="P27">
         <f t="shared" si="13"/>
-        <v>5156</v>
+        <v>5898</v>
       </c>
       <c r="Q27">
         <f t="shared" si="14"/>
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="R27">
         <f t="shared" si="15"/>
-        <v>22.6</v>
+        <v>42.6</v>
       </c>
       <c r="S27">
         <f t="shared" si="16"/>
-        <v>3.8023598820059</v>
+        <v>2.47498577449682</v>
       </c>
       <c r="T27">
         <f t="shared" si="17"/>
-        <v>3.99739872825038</v>
+        <v>2.06340466087247</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -3276,27 +3270,27 @@
       </c>
       <c r="O28">
         <f t="shared" si="12"/>
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="P28">
         <f t="shared" si="13"/>
-        <v>5720</v>
+        <v>6566</v>
       </c>
       <c r="Q28">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="R28">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>46.2</v>
       </c>
       <c r="S28">
         <f t="shared" si="16"/>
-        <v>3.97222222222222</v>
+        <v>2.54017036086203</v>
       </c>
       <c r="T28">
         <f t="shared" si="17"/>
-        <v>4.14585128141536</v>
+        <v>2.10311462872285</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -3357,27 +3351,27 @@
       </c>
       <c r="O29">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="P29">
         <f t="shared" si="13"/>
-        <v>6346</v>
+        <v>7311</v>
       </c>
       <c r="Q29">
         <f t="shared" si="14"/>
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="R29">
         <f t="shared" si="15"/>
-        <v>25.8</v>
+        <v>50.2</v>
       </c>
       <c r="S29">
         <f t="shared" si="16"/>
-        <v>4.09948320413437</v>
+        <v>2.60225350668876</v>
       </c>
       <c r="T29">
         <f t="shared" si="17"/>
-        <v>4.29981696</v>
+        <v>2.14358881</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3438,27 +3432,27 @@
       </c>
       <c r="O30">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="P30">
         <f t="shared" si="13"/>
-        <v>7038</v>
+        <v>8138</v>
       </c>
       <c r="Q30">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="R30">
         <f t="shared" si="15"/>
-        <v>27</v>
+        <v>54.2</v>
       </c>
       <c r="S30">
         <f t="shared" si="16"/>
-        <v>4.34444444444444</v>
+        <v>2.68331655024014</v>
       </c>
       <c r="T30">
         <f t="shared" si="17"/>
-        <v>4.45950050653815</v>
+        <v>2.18484191189692</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3519,27 +3513,27 @@
       </c>
       <c r="O31">
         <f t="shared" si="12"/>
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="P31">
         <f t="shared" si="13"/>
-        <v>13118</v>
+        <v>15493</v>
       </c>
       <c r="Q31">
         <f t="shared" si="14"/>
-        <v>198</v>
+        <v>441</v>
       </c>
       <c r="R31">
         <f t="shared" si="15"/>
-        <v>39.6</v>
+        <v>88.2</v>
       </c>
       <c r="S31">
         <f t="shared" si="16"/>
-        <v>5.52104377104377</v>
+        <v>3.15535987558599</v>
       </c>
       <c r="T31">
         <f t="shared" si="17"/>
-        <v>5.55013712057566</v>
+        <v>2.44957781710921</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3600,27 +3594,27 @@
       </c>
       <c r="O32">
         <f t="shared" si="12"/>
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="P32">
         <f t="shared" si="13"/>
-        <v>14553</v>
+        <v>17248</v>
       </c>
       <c r="Q32">
         <f t="shared" si="14"/>
-        <v>212</v>
+        <v>477</v>
       </c>
       <c r="R32">
         <f t="shared" si="15"/>
-        <v>42.4</v>
+        <v>95.4</v>
       </c>
       <c r="S32">
         <f t="shared" si="16"/>
-        <v>5.72051886792453</v>
+        <v>3.2465967955668</v>
       </c>
       <c r="T32">
         <f t="shared" si="17"/>
-        <v>5.75625416868055</v>
+        <v>2.49671963965569</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3681,27 +3675,27 @@
       </c>
       <c r="O33">
         <f t="shared" si="12"/>
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="P33">
         <f t="shared" si="13"/>
-        <v>16144</v>
+        <v>19201</v>
       </c>
       <c r="Q33">
         <f t="shared" si="14"/>
-        <v>226</v>
+        <v>519</v>
       </c>
       <c r="R33">
         <f t="shared" si="15"/>
-        <v>45.2</v>
+        <v>103.8</v>
       </c>
       <c r="S33">
         <f t="shared" si="16"/>
-        <v>5.95280235988201</v>
+        <v>3.31925145097323</v>
       </c>
       <c r="T33">
         <f t="shared" si="17"/>
-        <v>5.97002584523812</v>
+        <v>2.54476870075465</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3762,27 +3756,27 @@
       </c>
       <c r="O34">
         <f t="shared" si="12"/>
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="P34">
         <f t="shared" si="13"/>
-        <v>17911</v>
+        <v>21380</v>
       </c>
       <c r="Q34">
         <f t="shared" si="14"/>
-        <v>241</v>
+        <v>560</v>
       </c>
       <c r="R34">
         <f t="shared" si="15"/>
-        <v>48.2</v>
+        <v>112</v>
       </c>
       <c r="S34">
         <f t="shared" si="16"/>
-        <v>6.1932918395574</v>
+        <v>3.42510960991558</v>
       </c>
       <c r="T34">
         <f t="shared" si="17"/>
-        <v>6.1917364224</v>
+        <v>2.5937424601</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3843,27 +3837,27 @@
       </c>
       <c r="O35">
         <f t="shared" si="12"/>
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="P35">
         <f t="shared" si="13"/>
-        <v>19869</v>
+        <v>23801</v>
       </c>
       <c r="Q35">
         <f t="shared" si="14"/>
-        <v>256</v>
+        <v>608</v>
       </c>
       <c r="R35">
         <f t="shared" si="15"/>
-        <v>51.2</v>
+        <v>121.6</v>
       </c>
       <c r="S35">
         <f t="shared" si="16"/>
-        <v>6.4677734375</v>
+        <v>3.51015513053984</v>
       </c>
       <c r="T35">
         <f t="shared" si="17"/>
-        <v>6.42168072941493</v>
+        <v>2.64365871339527</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3924,27 +3918,27 @@
       </c>
       <c r="O36">
         <f t="shared" si="12"/>
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="P36">
         <f t="shared" si="13"/>
-        <v>22041</v>
+        <v>26495</v>
       </c>
       <c r="Q36">
         <f t="shared" si="14"/>
-        <v>275</v>
+        <v>660</v>
       </c>
       <c r="R36">
         <f t="shared" si="15"/>
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="S36">
         <f t="shared" si="16"/>
-        <v>6.67909090909091</v>
+        <v>3.59794783213289</v>
       </c>
       <c r="T36">
         <f t="shared" si="17"/>
-        <v>6.66016454469079</v>
+        <v>2.69453559882013</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3960,23 +3954,23 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D68" si="19">B37*10+C37</f>
+        <f t="shared" ref="D37:D82" si="19">B37*10+C37</f>
         <v>47</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E68" si="20">(B37-1)*9+C37-1</f>
+        <f t="shared" ref="E37:E82" si="20">(B37-1)*9+C37-1</f>
         <v>33</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F68" si="21">B37+E37/5</f>
+        <f t="shared" ref="F37:F82" si="21">B37+E37/5</f>
         <v>10.6</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G68" si="22">F37*5</f>
+        <f t="shared" ref="G37:G82" si="22">F37*5</f>
         <v>53</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H68" si="23">G37/5</f>
+        <f t="shared" ref="H37:H82" si="23">G37/5</f>
         <v>10.6</v>
       </c>
       <c r="I37">
@@ -3988,7 +3982,7 @@
         <v>10.0035</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:K68" si="25">I37/J37</f>
+        <f t="shared" ref="K37:K82" si="25">I37/J37</f>
         <v>735.242665067227</v>
       </c>
       <c r="L37">
@@ -4000,32 +3994,32 @@
         <v>24059</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N68" si="27">M37/10/3600</f>
+        <f t="shared" ref="N37:N82" si="27">M37/10/3600</f>
         <v>0.668305555555556</v>
       </c>
       <c r="O37">
         <f t="shared" ref="O37:O68" si="28">ROUND(10*POWER($J$1,F37),0)</f>
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="P37">
         <f t="shared" ref="P37:P68" si="29">ROUND(I37*POWER($V$1,H37),0)</f>
-        <v>24451</v>
+        <v>29497</v>
       </c>
       <c r="Q37">
         <f t="shared" ref="Q37:Q68" si="30">ROUND(O37*POWER($R$1,H37),0)</f>
-        <v>291</v>
+        <v>714</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:R68" si="31">Q37/5</f>
-        <v>58.2</v>
+        <f t="shared" ref="R37:R82" si="31">Q37/5</f>
+        <v>142.8</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S37:S68" si="32">P37/R37/60</f>
-        <v>7.00200458190149</v>
+        <f t="shared" ref="S37:S68" si="32">P37/(R37-J37)/60</f>
+        <v>3.70203029949333</v>
       </c>
       <c r="T37">
         <f t="shared" ref="T37:T68" si="33">POWER($N$1,F37)</f>
-        <v>6.90750500241665</v>
+        <v>2.74639160362126</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4086,27 +4080,27 @@
       </c>
       <c r="O38">
         <f t="shared" si="28"/>
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="P38">
         <f t="shared" si="29"/>
-        <v>27123</v>
+        <v>32837</v>
       </c>
       <c r="Q38">
         <f t="shared" si="30"/>
-        <v>311</v>
+        <v>775</v>
       </c>
       <c r="R38">
         <f t="shared" si="31"/>
-        <v>62.2</v>
+        <v>155</v>
       </c>
       <c r="S38">
         <f t="shared" si="32"/>
-        <v>7.26768488745981</v>
+        <v>3.79533639530768</v>
       </c>
       <c r="T38">
         <f t="shared" si="33"/>
-        <v>7.16403101428575</v>
+        <v>2.79924557083012</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4167,27 +4161,27 @@
       </c>
       <c r="O39">
         <f t="shared" si="28"/>
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="P39">
         <f t="shared" si="29"/>
-        <v>30089</v>
+        <v>36557</v>
       </c>
       <c r="Q39">
         <f t="shared" si="30"/>
-        <v>331</v>
+        <v>839</v>
       </c>
       <c r="R39">
         <f t="shared" si="31"/>
-        <v>66.2</v>
+        <v>167.8</v>
       </c>
       <c r="S39">
         <f t="shared" si="32"/>
-        <v>7.57527693856999</v>
+        <v>3.90231290791643</v>
       </c>
       <c r="T39">
         <f t="shared" si="33"/>
-        <v>7.43008370688</v>
+        <v>2.85311670611</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4248,27 +4242,27 @@
       </c>
       <c r="O40">
         <f t="shared" si="28"/>
-        <v>152</v>
+        <v>426</v>
       </c>
       <c r="P40">
         <f t="shared" si="29"/>
-        <v>56077</v>
+        <v>69593</v>
       </c>
       <c r="Q40">
         <f t="shared" si="30"/>
-        <v>486</v>
+        <v>1363</v>
       </c>
       <c r="R40">
         <f t="shared" si="31"/>
-        <v>97.2</v>
+        <v>272.6</v>
       </c>
       <c r="S40">
         <f t="shared" si="32"/>
-        <v>9.61539780521262</v>
+        <v>4.59375563963326</v>
       </c>
       <c r="T40">
         <f t="shared" si="33"/>
-        <v>9.2472202503575</v>
+        <v>3.19882704320828</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4329,27 +4323,27 @@
       </c>
       <c r="O41">
         <f t="shared" si="28"/>
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="P41">
         <f t="shared" si="29"/>
-        <v>62206</v>
+        <v>77472</v>
       </c>
       <c r="Q41">
         <f t="shared" si="30"/>
-        <v>518</v>
+        <v>1477</v>
       </c>
       <c r="R41">
         <f t="shared" si="31"/>
-        <v>103.6</v>
+        <v>295.4</v>
       </c>
       <c r="S41">
         <f t="shared" si="32"/>
-        <v>10.0074002574003</v>
+        <v>4.71644700170292</v>
       </c>
       <c r="T41">
         <f t="shared" si="33"/>
-        <v>9.59063694435473</v>
+        <v>3.26038807457236</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4410,27 +4404,27 @@
       </c>
       <c r="O42">
         <f t="shared" si="28"/>
-        <v>166</v>
+        <v>481</v>
       </c>
       <c r="P42">
         <f t="shared" si="29"/>
-        <v>69007</v>
+        <v>86248</v>
       </c>
       <c r="Q42">
         <f t="shared" si="30"/>
-        <v>552</v>
+        <v>1598</v>
       </c>
       <c r="R42">
         <f t="shared" si="31"/>
-        <v>110.4</v>
+        <v>319.6</v>
       </c>
       <c r="S42">
         <f t="shared" si="32"/>
-        <v>10.4177234299517</v>
+        <v>4.85121580755689</v>
       </c>
       <c r="T42">
         <f t="shared" si="33"/>
-        <v>9.94680720347998</v>
+        <v>3.32313384038172</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -4491,27 +4485,27 @@
       </c>
       <c r="O43">
         <f t="shared" si="28"/>
-        <v>174</v>
+        <v>512</v>
       </c>
       <c r="P43">
         <f t="shared" si="29"/>
-        <v>76552</v>
+        <v>96017</v>
       </c>
       <c r="Q43">
         <f t="shared" si="30"/>
-        <v>589</v>
+        <v>1734</v>
       </c>
       <c r="R43">
         <f t="shared" si="31"/>
-        <v>117.8</v>
+        <v>346.8</v>
       </c>
       <c r="S43">
         <f t="shared" si="32"/>
-        <v>10.8307866440294</v>
+        <v>4.97421120905809</v>
       </c>
       <c r="T43">
         <f t="shared" si="33"/>
-        <v>10.3162046605715</v>
+        <v>3.38708714070445</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4572,27 +4566,27 @@
       </c>
       <c r="O44">
         <f t="shared" si="28"/>
-        <v>182</v>
+        <v>545</v>
       </c>
       <c r="P44">
         <f t="shared" si="29"/>
-        <v>84922</v>
+        <v>106893</v>
       </c>
       <c r="Q44">
         <f t="shared" si="30"/>
-        <v>628</v>
+        <v>1881</v>
       </c>
       <c r="R44">
         <f t="shared" si="31"/>
-        <v>125.6</v>
+        <v>376.2</v>
       </c>
       <c r="S44">
         <f t="shared" si="32"/>
-        <v>11.2688428874735</v>
+        <v>5.10224538319179</v>
       </c>
       <c r="T44">
         <f t="shared" si="33"/>
-        <v>10.6993205379072</v>
+        <v>3.4522712143931</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -4653,27 +4647,27 @@
       </c>
       <c r="O45">
         <f t="shared" si="28"/>
-        <v>190</v>
+        <v>579</v>
       </c>
       <c r="P45">
         <f t="shared" si="29"/>
-        <v>94207</v>
+        <v>119001</v>
       </c>
       <c r="Q45">
         <f t="shared" si="30"/>
-        <v>669</v>
+        <v>2037</v>
       </c>
       <c r="R45">
         <f t="shared" si="31"/>
-        <v>133.8</v>
+        <v>407.4</v>
       </c>
       <c r="S45">
         <f t="shared" si="32"/>
-        <v>11.7348031888391</v>
+        <v>5.24336222357579</v>
       </c>
       <c r="T45">
         <f t="shared" si="33"/>
-        <v>11.096664300429</v>
+        <v>3.51870974752911</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -4734,27 +4728,27 @@
       </c>
       <c r="O46">
         <f t="shared" si="28"/>
-        <v>199</v>
+        <v>616</v>
       </c>
       <c r="P46">
         <f t="shared" si="29"/>
-        <v>104508</v>
+        <v>132480</v>
       </c>
       <c r="Q46">
         <f t="shared" si="30"/>
-        <v>714</v>
+        <v>2209</v>
       </c>
       <c r="R46">
         <f t="shared" si="31"/>
-        <v>142.8</v>
+        <v>441.8</v>
       </c>
       <c r="S46">
         <f t="shared" si="32"/>
-        <v>12.1974789915966</v>
+        <v>5.38050633781246</v>
       </c>
       <c r="T46">
         <f t="shared" si="33"/>
-        <v>11.5087643332257</v>
+        <v>3.58642688202959</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -4815,27 +4809,27 @@
       </c>
       <c r="O47">
         <f t="shared" si="28"/>
-        <v>208</v>
+        <v>655</v>
       </c>
       <c r="P47">
         <f t="shared" si="29"/>
-        <v>115932</v>
+        <v>147483</v>
       </c>
       <c r="Q47">
         <f t="shared" si="30"/>
-        <v>760</v>
+        <v>2394</v>
       </c>
       <c r="R47">
         <f t="shared" si="31"/>
-        <v>152</v>
+        <v>478.8</v>
       </c>
       <c r="S47">
         <f t="shared" si="32"/>
-        <v>12.7118421052632</v>
+        <v>5.52509720983771</v>
       </c>
       <c r="T47">
         <f t="shared" si="33"/>
-        <v>11.936168644176</v>
+        <v>3.65544722441989</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -4896,27 +4890,27 @@
       </c>
       <c r="O48">
         <f t="shared" si="28"/>
-        <v>217</v>
+        <v>696</v>
       </c>
       <c r="P48">
         <f t="shared" si="29"/>
-        <v>128608</v>
+        <v>164190</v>
       </c>
       <c r="Q48">
         <f t="shared" si="30"/>
-        <v>808</v>
+        <v>2593</v>
       </c>
       <c r="R48">
         <f t="shared" si="31"/>
-        <v>161.6</v>
+        <v>518.6</v>
       </c>
       <c r="S48">
         <f t="shared" si="32"/>
-        <v>13.2640264026403</v>
+        <v>5.6774306519429</v>
       </c>
       <c r="T48">
         <f t="shared" si="33"/>
-        <v>12.3794455926858</v>
+        <v>3.72579585477489</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4977,27 +4971,27 @@
       </c>
       <c r="O49">
         <f t="shared" si="28"/>
-        <v>284</v>
+        <v>1007</v>
       </c>
       <c r="P49">
         <f t="shared" si="29"/>
-        <v>239682</v>
+        <v>312563</v>
       </c>
       <c r="Q49">
         <f t="shared" si="30"/>
-        <v>1186</v>
+        <v>4206</v>
       </c>
       <c r="R49">
         <f t="shared" si="31"/>
-        <v>237.2</v>
+        <v>841.2</v>
       </c>
       <c r="S49">
         <f t="shared" si="32"/>
-        <v>16.8410623946037</v>
+        <v>6.69308843751376</v>
       </c>
       <c r="T49">
         <f t="shared" si="33"/>
-        <v>15.4070215745864</v>
+        <v>4.17724816941566</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -5058,27 +5052,27 @@
       </c>
       <c r="O50">
         <f t="shared" si="28"/>
-        <v>297</v>
+        <v>1071</v>
       </c>
       <c r="P50">
         <f t="shared" si="29"/>
-        <v>265887</v>
+        <v>347967</v>
       </c>
       <c r="Q50">
         <f t="shared" si="30"/>
-        <v>1265</v>
+        <v>4560</v>
       </c>
       <c r="R50">
         <f t="shared" si="31"/>
-        <v>253</v>
+        <v>912</v>
       </c>
       <c r="S50">
         <f t="shared" si="32"/>
-        <v>17.5156126482213</v>
+        <v>6.86834270122008</v>
       </c>
       <c r="T50">
         <f t="shared" si="33"/>
-        <v>15.9791965926178</v>
+        <v>4.25763879451022</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -5139,27 +5133,27 @@
       </c>
       <c r="O51">
         <f t="shared" si="28"/>
-        <v>311</v>
+        <v>1139</v>
       </c>
       <c r="P51">
         <f t="shared" si="29"/>
-        <v>294961</v>
+        <v>387384</v>
       </c>
       <c r="Q51">
         <f t="shared" si="30"/>
-        <v>1350</v>
+        <v>4943</v>
       </c>
       <c r="R51">
         <f t="shared" si="31"/>
-        <v>270</v>
+        <v>988.6</v>
       </c>
       <c r="S51">
         <f t="shared" si="32"/>
-        <v>18.2074691358025</v>
+        <v>7.04982616747323</v>
       </c>
       <c r="T51">
         <f t="shared" si="33"/>
-        <v>16.572620639845</v>
+        <v>4.33957652725581</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -5220,27 +5214,27 @@
       </c>
       <c r="O52">
         <f t="shared" si="28"/>
-        <v>325</v>
+        <v>1211</v>
       </c>
       <c r="P52">
         <f t="shared" si="29"/>
-        <v>327208</v>
+        <v>431260</v>
       </c>
       <c r="Q52">
         <f t="shared" si="30"/>
-        <v>1438</v>
+        <v>5356</v>
       </c>
       <c r="R52">
         <f t="shared" si="31"/>
-        <v>287.6</v>
+        <v>1071.2</v>
       </c>
       <c r="S52">
         <f t="shared" si="32"/>
-        <v>18.9619842373667</v>
+        <v>7.23950878910545</v>
       </c>
       <c r="T52">
         <f t="shared" si="33"/>
-        <v>17.1880828476134</v>
+        <v>4.42309114154807</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -5301,27 +5295,27 @@
       </c>
       <c r="O53">
         <f t="shared" si="28"/>
-        <v>340</v>
+        <v>1288</v>
       </c>
       <c r="P53">
         <f t="shared" si="29"/>
-        <v>362984</v>
+        <v>480109</v>
       </c>
       <c r="Q53">
         <f t="shared" si="30"/>
-        <v>1533</v>
+        <v>5807</v>
       </c>
       <c r="R53">
         <f t="shared" si="31"/>
-        <v>306.6</v>
+        <v>1161.4</v>
       </c>
       <c r="S53">
         <f t="shared" si="32"/>
-        <v>19.7316808001739</v>
+        <v>7.42985043454448</v>
       </c>
       <c r="T53">
         <f t="shared" si="33"/>
-        <v>17.8264016534675</v>
+        <v>4.50821298427762</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -5382,27 +5376,27 @@
       </c>
       <c r="O54">
         <f t="shared" si="28"/>
-        <v>355</v>
+        <v>1370</v>
       </c>
       <c r="P54">
         <f t="shared" si="29"/>
-        <v>402669</v>
+        <v>534487</v>
       </c>
       <c r="Q54">
         <f t="shared" si="30"/>
-        <v>1631</v>
+        <v>6295</v>
       </c>
       <c r="R54">
         <f t="shared" si="31"/>
-        <v>326.2</v>
+        <v>1259</v>
       </c>
       <c r="S54">
         <f t="shared" si="32"/>
-        <v>20.5737277743716</v>
+        <v>7.62672210436783</v>
       </c>
       <c r="T54">
         <f t="shared" si="33"/>
-        <v>18.4884258895036</v>
+        <v>4.59497298635722</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -5463,27 +5457,27 @@
       </c>
       <c r="O55">
         <f t="shared" si="28"/>
-        <v>371</v>
+        <v>1457</v>
       </c>
       <c r="P55">
         <f t="shared" si="29"/>
-        <v>446697</v>
+        <v>595031</v>
       </c>
       <c r="Q55">
         <f t="shared" si="30"/>
-        <v>1738</v>
+        <v>6824</v>
       </c>
       <c r="R55">
         <f t="shared" si="31"/>
-        <v>347.6</v>
+        <v>1364.8</v>
       </c>
       <c r="S55">
         <f t="shared" si="32"/>
-        <v>21.4181530494822</v>
+        <v>7.82920795042935</v>
       </c>
       <c r="T55">
         <f t="shared" si="33"/>
-        <v>19.1750359111413</v>
+        <v>4.68340267396125</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -5544,27 +5538,27 @@
       </c>
       <c r="O56">
         <f t="shared" si="28"/>
-        <v>388</v>
+        <v>1549</v>
       </c>
       <c r="P56">
         <f t="shared" si="29"/>
-        <v>495535</v>
+        <v>662427</v>
       </c>
       <c r="Q56">
         <f t="shared" si="30"/>
-        <v>1852</v>
+        <v>7394</v>
       </c>
       <c r="R56">
         <f t="shared" si="31"/>
-        <v>370.4</v>
+        <v>1478.8</v>
       </c>
       <c r="S56">
         <f t="shared" si="32"/>
-        <v>22.2972912167027</v>
+        <v>8.04131640598398</v>
       </c>
       <c r="T56">
         <f t="shared" si="33"/>
-        <v>19.887144767814</v>
+        <v>4.77353417998139</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -5625,27 +5619,27 @@
       </c>
       <c r="O57">
         <f t="shared" si="28"/>
-        <v>406</v>
+        <v>1647</v>
       </c>
       <c r="P57">
         <f t="shared" si="29"/>
-        <v>549710</v>
+        <v>737454</v>
       </c>
       <c r="Q57">
         <f t="shared" si="30"/>
-        <v>1975</v>
+        <v>8013</v>
       </c>
       <c r="R57">
         <f t="shared" si="31"/>
-        <v>395</v>
+        <v>1602.6</v>
       </c>
       <c r="S57">
         <f t="shared" si="32"/>
-        <v>23.1945147679325</v>
+        <v>8.25786018161931</v>
       </c>
       <c r="T57">
         <f t="shared" si="33"/>
-        <v>20.6256994171361</v>
+        <v>4.86540025570288</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -5706,27 +5700,27 @@
       </c>
       <c r="O58">
         <f t="shared" si="28"/>
-        <v>531</v>
+        <v>2382</v>
       </c>
       <c r="P58">
         <f t="shared" si="29"/>
-        <v>1024487</v>
+        <v>1403887</v>
       </c>
       <c r="Q58">
         <f t="shared" si="30"/>
-        <v>2897</v>
+        <v>12994</v>
       </c>
       <c r="R58">
         <f t="shared" si="31"/>
-        <v>579.4</v>
+        <v>2598.8</v>
       </c>
       <c r="S58">
         <f t="shared" si="32"/>
-        <v>29.469767575653</v>
+        <v>9.73776853086974</v>
       </c>
       <c r="T58">
         <f t="shared" si="33"/>
-        <v>25.6700183809932</v>
+        <v>5.45493771097592</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -5787,27 +5781,27 @@
       </c>
       <c r="O59">
         <f t="shared" si="28"/>
-        <v>555</v>
+        <v>2533</v>
       </c>
       <c r="P59">
         <f t="shared" si="29"/>
-        <v>1136492</v>
+        <v>1562894</v>
       </c>
       <c r="Q59">
         <f t="shared" si="30"/>
-        <v>3086</v>
+        <v>14083</v>
       </c>
       <c r="R59">
         <f t="shared" si="31"/>
-        <v>617.2</v>
+        <v>2816.6</v>
       </c>
       <c r="S59">
         <f t="shared" si="32"/>
-        <v>30.6894577662562</v>
+        <v>9.9960896840662</v>
       </c>
       <c r="T59">
         <f t="shared" si="33"/>
-        <v>26.6233332808852</v>
+        <v>5.55991731349224</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -5868,27 +5862,27 @@
       </c>
       <c r="O60">
         <f t="shared" si="28"/>
-        <v>580</v>
+        <v>2694</v>
       </c>
       <c r="P60">
         <f t="shared" si="29"/>
-        <v>1260748</v>
+        <v>1739918</v>
       </c>
       <c r="Q60">
         <f t="shared" si="30"/>
-        <v>3287</v>
+        <v>15267</v>
       </c>
       <c r="R60">
         <f t="shared" si="31"/>
-        <v>657.4</v>
+        <v>3053.4</v>
       </c>
       <c r="S60">
         <f t="shared" si="32"/>
-        <v>31.9629854984282</v>
+        <v>10.2591379913194</v>
       </c>
       <c r="T60">
         <f t="shared" si="33"/>
-        <v>27.6120517120435</v>
+        <v>5.66691723549311</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -5949,27 +5943,27 @@
       </c>
       <c r="O61">
         <f t="shared" si="28"/>
-        <v>607</v>
+        <v>2865</v>
       </c>
       <c r="P61">
         <f t="shared" si="29"/>
-        <v>1398593</v>
+        <v>1936997</v>
       </c>
       <c r="Q61">
         <f t="shared" si="30"/>
-        <v>3506</v>
+        <v>16548</v>
       </c>
       <c r="R61">
         <f t="shared" si="31"/>
-        <v>701.2</v>
+        <v>3309.6</v>
       </c>
       <c r="S61">
         <f t="shared" si="32"/>
-        <v>33.2428455980224</v>
+        <v>10.5313914570047</v>
       </c>
       <c r="T61">
         <f t="shared" si="33"/>
-        <v>28.6374884656521</v>
+        <v>5.77597635777748</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -6030,27 +6024,27 @@
       </c>
       <c r="O62">
         <f t="shared" si="28"/>
-        <v>635</v>
+        <v>3047</v>
       </c>
       <c r="P62">
         <f t="shared" si="29"/>
-        <v>1551503</v>
+        <v>2156392</v>
       </c>
       <c r="Q62">
         <f t="shared" si="30"/>
-        <v>3738</v>
+        <v>17938</v>
       </c>
       <c r="R62">
         <f t="shared" si="31"/>
-        <v>747.6</v>
+        <v>3587.6</v>
       </c>
       <c r="S62">
         <f t="shared" si="32"/>
-        <v>34.5885277331907</v>
+        <v>10.810333666568</v>
       </c>
       <c r="T62">
         <f t="shared" si="33"/>
-        <v>29.701007160676</v>
+        <v>5.88713430940048</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -6111,27 +6105,27 @@
       </c>
       <c r="O63">
         <f t="shared" si="28"/>
-        <v>664</v>
+        <v>3240</v>
       </c>
       <c r="P63">
         <f t="shared" si="29"/>
-        <v>1721130</v>
+        <v>2400635</v>
       </c>
       <c r="Q63">
         <f t="shared" si="30"/>
-        <v>3984</v>
+        <v>19441</v>
       </c>
       <c r="R63">
         <f t="shared" si="31"/>
-        <v>796.8</v>
+        <v>3888.2</v>
       </c>
       <c r="S63">
         <f t="shared" si="32"/>
-        <v>36.0008785140562</v>
+        <v>11.0994280461101</v>
       </c>
       <c r="T63">
         <f t="shared" si="33"/>
-        <v>30.8040220571919</v>
+        <v>6.00043148207351</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -6192,27 +6186,27 @@
       </c>
       <c r="O64">
         <f t="shared" si="28"/>
-        <v>694</v>
+        <v>3445</v>
       </c>
       <c r="P64">
         <f t="shared" si="29"/>
-        <v>1909311</v>
+        <v>2672554</v>
       </c>
       <c r="Q64">
         <f t="shared" si="30"/>
-        <v>4244</v>
+        <v>21069</v>
       </c>
       <c r="R64">
         <f t="shared" si="31"/>
-        <v>848.8</v>
+        <v>4213.8</v>
       </c>
       <c r="S64">
         <f t="shared" si="32"/>
-        <v>37.4903982092366</v>
+        <v>11.397282236603</v>
       </c>
       <c r="T64">
         <f t="shared" si="33"/>
-        <v>31.9479999370623</v>
+        <v>6.11590904484146</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -6273,27 +6267,27 @@
       </c>
       <c r="O65">
         <f t="shared" si="28"/>
-        <v>726</v>
+        <v>3664</v>
       </c>
       <c r="P65">
         <f t="shared" si="29"/>
-        <v>2118061</v>
+        <v>2975265</v>
       </c>
       <c r="Q65">
         <f t="shared" si="30"/>
-        <v>4526</v>
+        <v>22840</v>
       </c>
       <c r="R65">
         <f t="shared" si="31"/>
-        <v>905.2</v>
+        <v>4568</v>
       </c>
       <c r="S65">
         <f t="shared" si="32"/>
-        <v>38.9980299013109</v>
+        <v>11.6998228596174</v>
       </c>
       <c r="T65">
         <f t="shared" si="33"/>
-        <v>33.1344620544522</v>
+        <v>6.23360895904242</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -6354,27 +6348,27 @@
       </c>
       <c r="O66">
         <f t="shared" si="28"/>
-        <v>759</v>
+        <v>3896</v>
       </c>
       <c r="P66">
         <f t="shared" si="29"/>
-        <v>2349636</v>
+        <v>3312265</v>
       </c>
       <c r="Q66">
         <f t="shared" si="30"/>
-        <v>4822</v>
+        <v>24754</v>
       </c>
       <c r="R66">
         <f t="shared" si="31"/>
-        <v>964.4</v>
+        <v>4950.8</v>
       </c>
       <c r="S66">
         <f t="shared" si="32"/>
-        <v>40.6061800082953</v>
+        <v>12.0138578047934</v>
       </c>
       <c r="T66">
         <f t="shared" si="33"/>
-        <v>34.3649861587825</v>
+        <v>6.35357399355523</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -6435,27 +6429,27 @@
       </c>
       <c r="O67">
         <f t="shared" si="28"/>
-        <v>992</v>
+        <v>5635</v>
       </c>
       <c r="P67">
         <f t="shared" si="29"/>
-        <v>4378958</v>
+        <v>6305499</v>
       </c>
       <c r="Q67">
         <f t="shared" si="30"/>
-        <v>7066</v>
+        <v>40141</v>
       </c>
       <c r="R67">
         <f t="shared" si="31"/>
-        <v>1413.2</v>
+        <v>8028.2</v>
       </c>
       <c r="S67">
         <f t="shared" si="32"/>
-        <v>51.6435276912916</v>
+        <v>14.1671233264514</v>
       </c>
       <c r="T67">
         <f t="shared" si="33"/>
-        <v>42.7694503113734</v>
+        <v>7.12343251437459</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -6516,27 +6510,27 @@
       </c>
       <c r="O68">
         <f t="shared" si="28"/>
-        <v>1037</v>
+        <v>5993</v>
       </c>
       <c r="P68">
         <f t="shared" si="29"/>
-        <v>4857728</v>
+        <v>7019711</v>
       </c>
       <c r="Q68">
         <f t="shared" si="30"/>
-        <v>7529</v>
+        <v>43512</v>
       </c>
       <c r="R68">
         <f t="shared" si="31"/>
-        <v>1505.8</v>
+        <v>8702.4</v>
       </c>
       <c r="S68">
         <f t="shared" si="32"/>
-        <v>53.7668570416611</v>
+        <v>14.5404246017724</v>
       </c>
       <c r="T68">
         <f t="shared" si="33"/>
-        <v>44.3577917623563</v>
+        <v>7.26052209330895</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -6552,23 +6546,23 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <f>B69*10+C69</f>
+        <f t="shared" si="19"/>
         <v>83</v>
       </c>
       <c r="E69">
-        <f>(B69-1)*9+C69-1</f>
+        <f t="shared" si="20"/>
         <v>65</v>
       </c>
       <c r="F69">
-        <f>B69+E69/5</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="G69">
-        <f>F69*5</f>
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
       <c r="H69">
-        <f>G69/5</f>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="I69">
@@ -6580,7 +6574,7 @@
         <v>706.0776</v>
       </c>
       <c r="K69">
-        <f>I69/J69</f>
+        <f t="shared" si="25"/>
         <v>706.422353577001</v>
       </c>
       <c r="L69">
@@ -6592,32 +6586,32 @@
         <v>5083222</v>
       </c>
       <c r="N69">
-        <f>M69/10/3600</f>
+        <f t="shared" si="27"/>
         <v>141.200611111111</v>
       </c>
       <c r="O69">
         <f>ROUND(10*POWER($J$1,F69),0)</f>
-        <v>1084</v>
+        <v>6373</v>
       </c>
       <c r="P69">
         <f>ROUND(I69*POWER($V$1,H69),0)</f>
-        <v>5388841</v>
+        <v>7814816</v>
       </c>
       <c r="Q69">
         <f>ROUND(O69*POWER($R$1,H69),0)</f>
-        <v>8022</v>
+        <v>47162</v>
       </c>
       <c r="R69">
-        <f>Q69/5</f>
-        <v>1604.4</v>
+        <f t="shared" si="31"/>
+        <v>9432.4</v>
       </c>
       <c r="S69">
-        <f>P69/R69/60</f>
-        <v>55.9798159228787</v>
+        <f>P69/(R69-J69)/60</f>
+        <v>14.9257530679056</v>
       </c>
       <c r="T69">
         <f>POWER($N$1,F69)</f>
-        <v>46.0051199093697</v>
+        <v>7.40024994425817</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -6633,23 +6627,23 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <f>B70*10+C70</f>
+        <f t="shared" si="19"/>
         <v>84</v>
       </c>
       <c r="E70">
-        <f>(B70-1)*9+C70-1</f>
+        <f t="shared" si="20"/>
         <v>66</v>
       </c>
       <c r="F70">
-        <f>B70+E70/5</f>
+        <f t="shared" si="21"/>
         <v>21.2</v>
       </c>
       <c r="G70">
-        <f>F70*5</f>
+        <f t="shared" si="22"/>
         <v>106</v>
       </c>
       <c r="H70">
-        <f>G70/5</f>
+        <f t="shared" si="23"/>
         <v>21.2</v>
       </c>
       <c r="I70">
@@ -6661,7 +6655,7 @@
         <v>760.1698</v>
       </c>
       <c r="K70">
-        <f>I70/J70</f>
+        <f t="shared" si="25"/>
         <v>711.58049162174</v>
       </c>
       <c r="L70">
@@ -6673,32 +6667,32 @@
         <v>6043871</v>
       </c>
       <c r="N70">
-        <f>M70/10/3600</f>
+        <f t="shared" si="27"/>
         <v>167.885305555556</v>
       </c>
       <c r="O70">
         <f>ROUND(10*POWER($J$1,F70),0)</f>
-        <v>1134</v>
+        <v>6777</v>
       </c>
       <c r="P70">
         <f>ROUND(I70*POWER($V$1,H70),0)</f>
-        <v>5978011</v>
+        <v>8699965</v>
       </c>
       <c r="Q70">
         <f>ROUND(O70*POWER($R$1,H70),0)</f>
-        <v>8553</v>
+        <v>51117</v>
       </c>
       <c r="R70">
-        <f>Q70/5</f>
-        <v>1710.6</v>
+        <f t="shared" si="31"/>
+        <v>10223.4</v>
       </c>
       <c r="S70">
-        <f>P70/R70/60</f>
-        <v>58.2447776608597</v>
+        <f>P70/(R70-J70)/60</f>
+        <v>15.3224019285367</v>
       </c>
       <c r="T70">
         <f>POWER($N$1,F70)</f>
-        <v>47.7136253584111</v>
+        <v>7.54266684044133</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -6714,23 +6708,23 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <f>B71*10+C71</f>
+        <f t="shared" si="19"/>
         <v>85</v>
       </c>
       <c r="E71">
-        <f>(B71-1)*9+C71-1</f>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
       <c r="F71">
-        <f>B71+E71/5</f>
+        <f t="shared" si="21"/>
         <v>21.4</v>
       </c>
       <c r="G71">
-        <f>F71*5</f>
+        <f t="shared" si="22"/>
         <v>107</v>
       </c>
       <c r="H71">
-        <f>G71/5</f>
+        <f t="shared" si="23"/>
         <v>21.4</v>
       </c>
       <c r="I71">
@@ -6742,7 +6736,7 @@
         <v>818.8313</v>
       </c>
       <c r="K71">
-        <f>I71/J71</f>
+        <f t="shared" si="25"/>
         <v>716.405198482276</v>
       </c>
       <c r="L71">
@@ -6754,32 +6748,32 @@
         <v>7094365</v>
       </c>
       <c r="N71">
-        <f>M71/10/3600</f>
+        <f t="shared" si="27"/>
         <v>197.065694444444</v>
       </c>
       <c r="O71">
         <f>ROUND(10*POWER($J$1,F71),0)</f>
-        <v>1185</v>
+        <v>7207</v>
       </c>
       <c r="P71">
         <f>ROUND(I71*POWER($V$1,H71),0)</f>
-        <v>6631608</v>
+        <v>9685387</v>
       </c>
       <c r="Q71">
         <f>ROUND(O71*POWER($R$1,H71),0)</f>
-        <v>9110</v>
+        <v>55406</v>
       </c>
       <c r="R71">
-        <f>Q71/5</f>
-        <v>1822</v>
+        <f t="shared" si="31"/>
+        <v>11081.2</v>
       </c>
       <c r="S71">
-        <f>P71/R71/60</f>
-        <v>60.6623490669594</v>
+        <f>P71/(R71-J71)/60</f>
+        <v>15.7296157822381</v>
       </c>
       <c r="T71">
         <f>POWER($N$1,F71)</f>
-        <v>49.4855800686468</v>
+        <v>7.68782453220183</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -6795,23 +6789,23 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <f>B72*10+C72</f>
+        <f t="shared" si="19"/>
         <v>86</v>
       </c>
       <c r="E72">
-        <f>(B72-1)*9+C72-1</f>
+        <f t="shared" si="20"/>
         <v>68</v>
       </c>
       <c r="F72">
-        <f>B72+E72/5</f>
+        <f t="shared" si="21"/>
         <v>21.6</v>
       </c>
       <c r="G72">
-        <f>F72*5</f>
+        <f t="shared" si="22"/>
         <v>108</v>
       </c>
       <c r="H72">
-        <f>G72/5</f>
+        <f t="shared" si="23"/>
         <v>21.6</v>
       </c>
       <c r="I72">
@@ -6823,7 +6817,7 @@
         <v>882.448000000001</v>
       </c>
       <c r="K72">
-        <f>I72/J72</f>
+        <f t="shared" si="25"/>
         <v>720.91160045691</v>
       </c>
       <c r="L72">
@@ -6835,32 +6829,32 @@
         <v>8234704</v>
       </c>
       <c r="N72">
-        <f>M72/10/3600</f>
+        <f t="shared" si="27"/>
         <v>228.741777777778</v>
       </c>
       <c r="O72">
         <f>ROUND(10*POWER($J$1,F72),0)</f>
-        <v>1240</v>
+        <v>7664</v>
       </c>
       <c r="P72">
         <f>ROUND(I72*POWER($V$1,H72),0)</f>
-        <v>7356656</v>
+        <v>10782412</v>
       </c>
       <c r="Q72">
         <f>ROUND(O72*POWER($R$1,H72),0)</f>
-        <v>9716</v>
+        <v>60053</v>
       </c>
       <c r="R72">
-        <f>Q72/5</f>
-        <v>1943.2</v>
+        <f t="shared" si="31"/>
+        <v>12010.6</v>
       </c>
       <c r="S72">
-        <f>P72/R72/60</f>
-        <v>63.0974337861946</v>
+        <f>P72/(R72-J72)/60</f>
+        <v>16.1488508304583</v>
       </c>
       <c r="T72">
         <f>POWER($N$1,F72)</f>
-        <v>51.3233403736481</v>
+        <v>7.83577576581204</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -6876,23 +6870,23 @@
         <v>7</v>
       </c>
       <c r="D73">
-        <f>B73*10+C73</f>
+        <f t="shared" si="19"/>
         <v>87</v>
       </c>
       <c r="E73">
-        <f>(B73-1)*9+C73-1</f>
+        <f t="shared" si="20"/>
         <v>69</v>
       </c>
       <c r="F73">
-        <f>B73+E73/5</f>
+        <f t="shared" si="21"/>
         <v>21.8</v>
       </c>
       <c r="G73">
-        <f>F73*5</f>
+        <f t="shared" si="22"/>
         <v>109</v>
       </c>
       <c r="H73">
-        <f>G73/5</f>
+        <f t="shared" si="23"/>
         <v>21.8</v>
       </c>
       <c r="I73">
@@ -6904,7 +6898,7 @@
         <v>951.4385</v>
       </c>
       <c r="K73">
-        <f>I73/J73</f>
+        <f t="shared" si="25"/>
         <v>725.117808455302</v>
       </c>
       <c r="L73">
@@ -6916,32 +6910,32 @@
         <v>9464888</v>
       </c>
       <c r="N73">
-        <f>M73/10/3600</f>
+        <f t="shared" si="27"/>
         <v>262.913555555556</v>
       </c>
       <c r="O73">
         <f>ROUND(10*POWER($J$1,F73),0)</f>
-        <v>1296</v>
+        <v>8150</v>
       </c>
       <c r="P73">
         <f>ROUND(I73*POWER($V$1,H73),0)</f>
-        <v>8160978</v>
+        <v>12003698</v>
       </c>
       <c r="Q73">
         <f>ROUND(O73*POWER($R$1,H73),0)</f>
-        <v>10351</v>
+        <v>65091</v>
       </c>
       <c r="R73">
-        <f>Q73/5</f>
-        <v>2070.2</v>
+        <f t="shared" si="31"/>
+        <v>13018.2</v>
       </c>
       <c r="S73">
-        <f>P73/R73/60</f>
-        <v>65.7020094676843</v>
+        <f>P73/(R73-J73)/60</f>
+        <v>16.579563069456</v>
       </c>
       <c r="T73">
         <f>POWER($N$1,F73)</f>
-        <v>53.2293501148275</v>
+        <v>7.98657430263985</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -6957,23 +6951,23 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <f>B74*10+C74</f>
+        <f t="shared" si="19"/>
         <v>88</v>
       </c>
       <c r="E74">
-        <f>(B74-1)*9+C74-1</f>
+        <f t="shared" si="20"/>
         <v>70</v>
       </c>
       <c r="F74">
-        <f>B74+E74/5</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="G74">
-        <f>F74*5</f>
+        <f t="shared" si="22"/>
         <v>110</v>
       </c>
       <c r="H74">
-        <f>G74/5</f>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="I74">
@@ -6985,7 +6979,7 @@
         <v>1026.2568</v>
       </c>
       <c r="K74">
-        <f>I74/J74</f>
+        <f t="shared" si="25"/>
         <v>729.040723530407</v>
       </c>
       <c r="L74">
@@ -6997,32 +6991,32 @@
         <v>10784917</v>
       </c>
       <c r="N74">
-        <f>M74/10/3600</f>
+        <f t="shared" si="27"/>
         <v>299.581027777778</v>
       </c>
       <c r="O74">
         <f>ROUND(10*POWER($J$1,F74),0)</f>
-        <v>1355</v>
+        <v>8667</v>
       </c>
       <c r="P74">
         <f>ROUND(I74*POWER($V$1,H74),0)</f>
-        <v>9053246</v>
+        <v>13363326</v>
       </c>
       <c r="Q74">
         <f>ROUND(O74*POWER($R$1,H74),0)</f>
-        <v>11030</v>
+        <v>70552</v>
       </c>
       <c r="R74">
-        <f>Q74/5</f>
-        <v>2206</v>
+        <f t="shared" si="31"/>
+        <v>14110.4</v>
       </c>
       <c r="S74">
-        <f>P74/R74/60</f>
-        <v>68.3986551828347</v>
+        <f>P74/(R74-J74)/60</f>
+        <v>17.0222915322419</v>
       </c>
       <c r="T74">
         <f>POWER($N$1,F74)</f>
-        <v>55.2061438912436</v>
+        <v>8.14027493868399</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -7038,23 +7032,23 @@
         <v>9</v>
       </c>
       <c r="D75">
-        <f>B75*10+C75</f>
+        <f t="shared" si="19"/>
         <v>89</v>
       </c>
       <c r="E75">
-        <f>(B75-1)*9+C75-1</f>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
       <c r="F75">
-        <f>B75+E75/5</f>
+        <f t="shared" si="21"/>
         <v>22.2</v>
       </c>
       <c r="G75">
-        <f>F75*5</f>
+        <f t="shared" si="22"/>
         <v>111</v>
       </c>
       <c r="H75">
-        <f>G75/5</f>
+        <f t="shared" si="23"/>
         <v>22.2</v>
       </c>
       <c r="I75">
@@ -7066,7 +7060,7 @@
         <v>1107.3951</v>
       </c>
       <c r="K75">
-        <f>I75/J75</f>
+        <f t="shared" si="25"/>
         <v>732.695132929521</v>
       </c>
       <c r="L75">
@@ -7078,32 +7072,32 @@
         <v>12194791</v>
       </c>
       <c r="N75">
-        <f>M75/10/3600</f>
+        <f t="shared" si="27"/>
         <v>338.744194444444</v>
       </c>
       <c r="O75">
         <f>ROUND(10*POWER($J$1,F75),0)</f>
-        <v>1417</v>
+        <v>9216</v>
       </c>
       <c r="P75">
         <f>ROUND(I75*POWER($V$1,H75),0)</f>
-        <v>10043059</v>
+        <v>14876940</v>
       </c>
       <c r="Q75">
         <f>ROUND(O75*POWER($R$1,H75),0)</f>
-        <v>11757</v>
+        <v>76465</v>
       </c>
       <c r="R75">
-        <f>Q75/5</f>
-        <v>2351.4</v>
+        <f t="shared" si="31"/>
+        <v>15293</v>
       </c>
       <c r="S75">
-        <f>P75/R75/60</f>
-        <v>71.1849607326132</v>
+        <f>P75/(R75-J75)/60</f>
+        <v>17.4789162498104</v>
       </c>
       <c r="T75">
         <f>POWER($N$1,F75)</f>
-        <v>57.2563504300933</v>
+        <v>8.29693352448546</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -7119,23 +7113,23 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <f>B76*10+C76</f>
+        <f t="shared" si="19"/>
         <v>91</v>
       </c>
       <c r="E76">
-        <f>(B76-1)*9+C76-1</f>
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
       <c r="F76">
-        <f>B76+E76/5</f>
+        <f t="shared" si="21"/>
         <v>23.4</v>
       </c>
       <c r="G76">
-        <f>F76*5</f>
+        <f t="shared" si="22"/>
         <v>117</v>
       </c>
       <c r="H76">
-        <f>G76/5</f>
+        <f t="shared" si="23"/>
         <v>23.4</v>
       </c>
       <c r="I76">
@@ -7147,7 +7141,7 @@
         <v>1899.3249</v>
       </c>
       <c r="K76">
-        <f>I76/J76</f>
+        <f t="shared" si="25"/>
         <v>694.922179980898</v>
       </c>
       <c r="L76">
@@ -7159,32 +7153,32 @@
         <v>15270251</v>
       </c>
       <c r="N76">
-        <f>M76/10/3600</f>
+        <f t="shared" si="27"/>
         <v>424.173638888889</v>
       </c>
       <c r="O76">
         <f>ROUND(10*POWER($J$1,F76),0)</f>
-        <v>1852</v>
+        <v>13329</v>
       </c>
       <c r="P76">
         <f>ROUND(I76*POWER($V$1,H76),0)</f>
-        <v>18717040</v>
+        <v>28321024</v>
       </c>
       <c r="Q76">
         <f>ROUND(O76*POWER($R$1,H76),0)</f>
-        <v>17228</v>
+        <v>123990</v>
       </c>
       <c r="R76">
-        <f>Q76/5</f>
-        <v>3445.6</v>
+        <f t="shared" si="31"/>
+        <v>24798</v>
       </c>
       <c r="S76">
-        <f>P76/R76/60</f>
-        <v>90.5359492299358</v>
+        <f>P76/(R76-J76)/60</f>
+        <v>20.6132915815145</v>
       </c>
       <c r="T76">
         <f>POWER($N$1,F76)</f>
-        <v>71.2592352988515</v>
+        <v>9.30226768396421</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -7200,23 +7194,23 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <f>B77*10+C77</f>
+        <f t="shared" si="19"/>
         <v>92</v>
       </c>
       <c r="E77">
-        <f>(B77-1)*9+C77-1</f>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="F77">
-        <f>B77+E77/5</f>
+        <f t="shared" si="21"/>
         <v>23.6</v>
       </c>
       <c r="G77">
-        <f>F77*5</f>
+        <f t="shared" si="22"/>
         <v>118</v>
       </c>
       <c r="H77">
-        <f>G77/5</f>
+        <f t="shared" si="23"/>
         <v>23.6</v>
       </c>
       <c r="I77">
@@ -7228,7 +7222,7 @@
         <v>2042.4625</v>
       </c>
       <c r="K77">
-        <f>I77/J77</f>
+        <f t="shared" si="25"/>
         <v>700.808949980721</v>
       </c>
       <c r="L77">
@@ -7240,32 +7234,32 @@
         <v>18745521</v>
       </c>
       <c r="N77">
-        <f>M77/10/3600</f>
+        <f t="shared" si="27"/>
         <v>520.708916666667</v>
       </c>
       <c r="O77">
         <f>ROUND(10*POWER($J$1,F77),0)</f>
-        <v>1937</v>
+        <v>14175</v>
       </c>
       <c r="P77">
         <f>ROUND(I77*POWER($V$1,H77),0)</f>
-        <v>20763428</v>
+        <v>31528857</v>
       </c>
       <c r="Q77">
         <f>ROUND(O77*POWER($R$1,H77),0)</f>
-        <v>18365</v>
+        <v>134397</v>
       </c>
       <c r="R77">
-        <f>Q77/5</f>
-        <v>3673</v>
+        <f t="shared" si="31"/>
+        <v>26879.4</v>
       </c>
       <c r="S77">
-        <f>P77/R77/60</f>
-        <v>94.2164806243761</v>
+        <f>P77/(R77-J77)/60</f>
+        <v>21.1572360722815</v>
       </c>
       <c r="T77">
         <f>POWER($N$1,F77)</f>
-        <v>73.9056101380532</v>
+        <v>9.48128867663257</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -7281,23 +7275,23 @@
         <v>3</v>
       </c>
       <c r="D78">
-        <f>B78*10+C78</f>
+        <f t="shared" si="19"/>
         <v>93</v>
       </c>
       <c r="E78">
-        <f>(B78-1)*9+C78-1</f>
+        <f t="shared" si="20"/>
         <v>74</v>
       </c>
       <c r="F78">
-        <f>B78+E78/5</f>
+        <f t="shared" si="21"/>
         <v>23.8</v>
       </c>
       <c r="G78">
-        <f>F78*5</f>
+        <f t="shared" si="22"/>
         <v>119</v>
       </c>
       <c r="H78">
-        <f>G78/5</f>
+        <f t="shared" si="23"/>
         <v>23.8</v>
       </c>
       <c r="I78">
@@ -7309,7 +7303,7 @@
         <v>2197.6912</v>
       </c>
       <c r="K78">
-        <f>I78/J78</f>
+        <f t="shared" si="25"/>
         <v>706.326257301298</v>
       </c>
       <c r="L78">
@@ -7321,32 +7315,32 @@
         <v>22620601</v>
       </c>
       <c r="N78">
-        <f>M78/10/3600</f>
+        <f t="shared" si="27"/>
         <v>628.350027777778</v>
       </c>
       <c r="O78">
         <f>ROUND(10*POWER($J$1,F78),0)</f>
-        <v>2025</v>
+        <v>15074</v>
       </c>
       <c r="P78">
         <f>ROUND(I78*POWER($V$1,H78),0)</f>
-        <v>23033554</v>
+        <v>35100030</v>
       </c>
       <c r="Q78">
         <f>ROUND(O78*POWER($R$1,H78),0)</f>
-        <v>19569</v>
+        <v>145671</v>
       </c>
       <c r="R78">
-        <f>Q78/5</f>
-        <v>3913.8</v>
+        <f t="shared" si="31"/>
+        <v>29134.2</v>
       </c>
       <c r="S78">
-        <f>P78/R78/60</f>
-        <v>98.0869146779771</v>
+        <f>P78/(R78-J78)/60</f>
+        <v>21.7177550492364</v>
       </c>
       <c r="T78">
         <f>POWER($N$1,F78)</f>
-        <v>76.6502641653516</v>
+        <v>9.66375490619422</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -7362,23 +7356,23 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <f>B79*10+C79</f>
+        <f t="shared" si="19"/>
         <v>94</v>
       </c>
       <c r="E79">
-        <f>(B79-1)*9+C79-1</f>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="F79">
-        <f>B79+E79/5</f>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="G79">
-        <f>F79*5</f>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
       <c r="H79">
-        <f>G79/5</f>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="I79">
@@ -7390,7 +7384,7 @@
         <v>2366.0323</v>
       </c>
       <c r="K79">
-        <f>I79/J79</f>
+        <f t="shared" si="25"/>
         <v>711.491132221652</v>
       </c>
       <c r="L79">
@@ -7402,32 +7396,32 @@
         <v>26895490</v>
       </c>
       <c r="N79">
-        <f>M79/10/3600</f>
+        <f t="shared" si="27"/>
         <v>747.096944444444</v>
       </c>
       <c r="O79">
         <f>ROUND(10*POWER($J$1,F79),0)</f>
-        <v>2118</v>
+        <v>16030</v>
       </c>
       <c r="P79">
         <f>ROUND(I79*POWER($V$1,H79),0)</f>
-        <v>25551871</v>
+        <v>39075684</v>
       </c>
       <c r="Q79">
         <f>ROUND(O79*POWER($R$1,H79),0)</f>
-        <v>20862</v>
+        <v>157891</v>
       </c>
       <c r="R79">
-        <f>Q79/5</f>
-        <v>4172.4</v>
+        <f t="shared" si="31"/>
+        <v>31578.2</v>
       </c>
       <c r="S79">
-        <f>P79/R79/60</f>
-        <v>102.067039753299</v>
+        <f>P79/(R79-J79)/60</f>
+        <v>22.2941825710524</v>
       </c>
       <c r="T79">
         <f>POWER($N$1,F79)</f>
-        <v>79.4968472033908</v>
+        <v>9.84973267580763</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -7443,23 +7437,23 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <f>B80*10+C80</f>
+        <f t="shared" si="19"/>
         <v>95</v>
       </c>
       <c r="E80">
-        <f>(B80-1)*9+C80-1</f>
+        <f t="shared" si="20"/>
         <v>76</v>
       </c>
       <c r="F80">
-        <f>B80+E80/5</f>
+        <f t="shared" si="21"/>
         <v>24.2</v>
       </c>
       <c r="G80">
-        <f>F80*5</f>
+        <f t="shared" si="22"/>
         <v>121</v>
       </c>
       <c r="H80">
-        <f>G80/5</f>
+        <f t="shared" si="23"/>
         <v>24.2</v>
       </c>
       <c r="I80">
@@ -7471,7 +7465,7 @@
         <v>2548.5935</v>
       </c>
       <c r="K80">
-        <f>I80/J80</f>
+        <f t="shared" si="25"/>
         <v>716.321374907376</v>
       </c>
       <c r="L80">
@@ -7483,32 +7477,32 @@
         <v>31570189</v>
       </c>
       <c r="N80">
-        <f>M80/10/3600</f>
+        <f t="shared" si="27"/>
         <v>876.949694444444</v>
       </c>
       <c r="O80">
         <f>ROUND(10*POWER($J$1,F80),0)</f>
-        <v>2214</v>
+        <v>17047</v>
       </c>
       <c r="P80">
         <f>ROUND(I80*POWER($V$1,H80),0)</f>
-        <v>28345533</v>
+        <v>43501665</v>
       </c>
       <c r="Q80">
         <f>ROUND(O80*POWER($R$1,H80),0)</f>
-        <v>22227</v>
+        <v>171140</v>
       </c>
       <c r="R80">
-        <f>Q80/5</f>
-        <v>4445.4</v>
+        <f t="shared" si="31"/>
+        <v>34228</v>
       </c>
       <c r="S80">
-        <f>P80/R80/60</f>
-        <v>106.272900076484</v>
+        <f>P80/(R80-J80)/60</f>
+        <v>22.8864057159657</v>
       </c>
       <c r="T80">
         <f>POWER($N$1,F80)</f>
-        <v>82.4491446193344</v>
+        <v>10.0392895646274</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -7524,23 +7518,23 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <f>B81*10+C81</f>
+        <f t="shared" si="19"/>
         <v>96</v>
       </c>
       <c r="E81">
-        <f>(B81-1)*9+C81-1</f>
+        <f t="shared" si="20"/>
         <v>77</v>
       </c>
       <c r="F81">
-        <f>B81+E81/5</f>
+        <f t="shared" si="21"/>
         <v>24.4</v>
       </c>
       <c r="G81">
-        <f>F81*5</f>
+        <f t="shared" si="22"/>
         <v>122</v>
       </c>
       <c r="H81">
-        <f>G81/5</f>
+        <f t="shared" si="23"/>
         <v>24.4</v>
       </c>
       <c r="I81">
@@ -7552,7 +7546,7 @@
         <v>2746.576</v>
       </c>
       <c r="K81">
-        <f>I81/J81</f>
+        <f t="shared" si="25"/>
         <v>720.833867331544</v>
       </c>
       <c r="L81">
@@ -7564,32 +7558,32 @@
         <v>36644698</v>
       </c>
       <c r="N81">
-        <f>M81/10/3600</f>
+        <f t="shared" si="27"/>
         <v>1017.90827777778</v>
       </c>
       <c r="O81">
         <f>ROUND(10*POWER($J$1,F81),0)</f>
-        <v>2315</v>
+        <v>18128</v>
       </c>
       <c r="P81">
         <f>ROUND(I81*POWER($V$1,H81),0)</f>
-        <v>31444635</v>
+        <v>48428964</v>
       </c>
       <c r="Q81">
         <f>ROUND(O81*POWER($R$1,H81),0)</f>
-        <v>23688</v>
+        <v>185495</v>
       </c>
       <c r="R81">
-        <f>Q81/5</f>
-        <v>4737.6</v>
+        <f t="shared" si="31"/>
+        <v>37099</v>
       </c>
       <c r="S81">
-        <f>P81/R81/60</f>
-        <v>110.62083122256</v>
+        <f>P81/(R81-J81)/60</f>
+        <v>23.4961410583428</v>
       </c>
       <c r="T81">
         <f>POWER($N$1,F81)</f>
-        <v>85.5110823586217</v>
+        <v>10.2324944523606</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -7605,23 +7599,23 @@
         <v>7</v>
       </c>
       <c r="D82">
-        <f>B82*10+C82</f>
+        <f t="shared" si="19"/>
         <v>97</v>
       </c>
       <c r="E82">
-        <f>(B82-1)*9+C82-1</f>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
       <c r="F82">
-        <f>B82+E82/5</f>
+        <f t="shared" si="21"/>
         <v>24.6</v>
       </c>
       <c r="G82">
-        <f>F82*5</f>
+        <f t="shared" si="22"/>
         <v>123</v>
       </c>
       <c r="H82">
-        <f>G82/5</f>
+        <f t="shared" si="23"/>
         <v>24.6</v>
       </c>
       <c r="I82">
@@ -7633,7 +7627,7 @@
         <v>2961.2824</v>
       </c>
       <c r="K82">
-        <f>I82/J82</f>
+        <f t="shared" si="25"/>
         <v>725.045338465524</v>
       </c>
       <c r="L82">
@@ -7645,32 +7639,32 @@
         <v>42119017</v>
       </c>
       <c r="N82">
-        <f>M82/10/3600</f>
+        <f t="shared" si="27"/>
         <v>1169.97269444444</v>
       </c>
       <c r="O82">
         <f>ROUND(10*POWER($J$1,F82),0)</f>
-        <v>2421</v>
+        <v>19278</v>
       </c>
       <c r="P82">
         <f>ROUND(I82*POWER($V$1,H82),0)</f>
-        <v>34882560</v>
+        <v>53914345</v>
       </c>
       <c r="Q82">
         <f>ROUND(O82*POWER($R$1,H82),0)</f>
-        <v>25250</v>
+        <v>201058</v>
       </c>
       <c r="R82">
-        <f>Q82/5</f>
-        <v>5050</v>
+        <f t="shared" si="31"/>
+        <v>40211.6</v>
       </c>
       <c r="S82">
-        <f>P82/R82/60</f>
-        <v>115.12396039604</v>
+        <f>P82/(R82-J82)/60</f>
+        <v>24.1225437676984</v>
       </c>
       <c r="T82">
         <f>POWER($N$1,F82)</f>
-        <v>88.6867321656639</v>
+        <v>10.4294175442958</v>
       </c>
     </row>
   </sheetData>
